--- a/docs/quick-start/files/respondentsTemplate.xlsx
+++ b/docs/quick-start/files/respondentsTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TakeControl\repos\NSIWebAssistant\NSIWebAssistant\wwwroot\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\TakeControl\repos\docs.nsiassistant\docs\quick-start\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA02C86B-BB78-4D9E-99F3-910647BE5AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0074D6-CD04-403F-8E81-221EE63BAB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3758" yWindow="3150" windowWidth="21600" windowHeight="9990" xr2:uid="{2DF9BD5A-6456-426D-88AA-E541B16F0BA1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="13906" xr2:uid="{2DF9BD5A-6456-426D-88AA-E541B16F0BA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Фирми" sheetId="2" r:id="rId1"/>
@@ -379,7 +379,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -403,6 +403,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{F7DC0E84-2855-4485-BEAB-792037847ECB}"/>
@@ -683,12 +688,14 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:IV2"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="31.1328125" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" style="15"/>
+    <col min="5" max="5" width="26.33203125" style="15"/>
     <col min="8" max="8" width="39" customWidth="1"/>
   </cols>
   <sheetData>
@@ -696,7 +703,7 @@
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="8" t="s">
@@ -705,7 +712,7 @@
       <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="8" t="s">
@@ -786,7 +793,7 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="11"/>
